--- a/data and db/artist-song-album.xlsx
+++ b/data and db/artist-song-album.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnefthymiou/Documents/university/7th senester/database/project/Record_CompanyDB/data and db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD63EA9-A057-D045-8C32-DC349610642E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305329EE-C2EA-A74D-BC3D-50ED11DCED8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13240" yWindow="0" windowWidth="25160" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12040" yWindow="0" windowWidth="26360" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="192">
   <si>
     <t>artist_id</t>
   </si>
@@ -509,13 +510,100 @@
   </si>
   <si>
     <t>Morocco</t>
+  </si>
+  <si>
+    <t>532-91-5797</t>
+  </si>
+  <si>
+    <t>755-77-0066</t>
+  </si>
+  <si>
+    <t>428-84-0861</t>
+  </si>
+  <si>
+    <t>182-17-7378</t>
+  </si>
+  <si>
+    <t>195-91-7829</t>
+  </si>
+  <si>
+    <t>449-25-2558</t>
+  </si>
+  <si>
+    <t>121-78-1884</t>
+  </si>
+  <si>
+    <t>653-81-7206</t>
+  </si>
+  <si>
+    <t>168-03-0087</t>
+  </si>
+  <si>
+    <t>749-60-3632</t>
+  </si>
+  <si>
+    <t>210-94-7396</t>
+  </si>
+  <si>
+    <t>844-87-5599</t>
+  </si>
+  <si>
+    <t>133-61-4534</t>
+  </si>
+  <si>
+    <t>743-21-3680</t>
+  </si>
+  <si>
+    <t>347-24-8689</t>
+  </si>
+  <si>
+    <t>258-25-8106</t>
+  </si>
+  <si>
+    <t>426-38-2985</t>
+  </si>
+  <si>
+    <t>712-52-7999</t>
+  </si>
+  <si>
+    <t>825-70-2010</t>
+  </si>
+  <si>
+    <t>420-35-0977</t>
+  </si>
+  <si>
+    <t>397-35-2485</t>
+  </si>
+  <si>
+    <t>673-81-5174</t>
+  </si>
+  <si>
+    <t>617-02-3073</t>
+  </si>
+  <si>
+    <t>480-21-4930</t>
+  </si>
+  <si>
+    <t>187-59-9004</t>
+  </si>
+  <si>
+    <t>552-63-6946</t>
+  </si>
+  <si>
+    <t>289-49-6102</t>
+  </si>
+  <si>
+    <t>455-53-2233</t>
+  </si>
+  <si>
+    <t>781-58-9615</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -549,6 +637,11 @@
       <color rgb="FF24292F"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val=".AppleSystemUIFont"/>
     </font>
   </fonts>
   <fills count="4">
@@ -629,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -641,6 +734,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,11 +1051,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
       <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="71.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" customWidth="1"/>
@@ -971,7 +1065,7 @@
     <col min="10" max="10" width="45.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>134</v>
       </c>
@@ -988,7 +1082,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1005,7 +1099,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1022,7 +1116,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1133,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1056,7 +1150,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1167,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>140</v>
       </c>
@@ -1090,7 +1184,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1201,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1124,7 +1218,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1141,7 +1235,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1252,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1175,7 +1269,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1192,7 +1286,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>140</v>
       </c>
@@ -1209,7 +1303,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1226,7 +1320,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1243,7 +1337,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1260,7 +1354,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1277,7 +1371,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1298,7 +1392,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -1319,7 +1413,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -1340,7 +1434,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1361,7 +1455,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
@@ -1382,7 +1476,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1403,7 +1497,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -1424,7 +1518,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1445,7 +1539,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
@@ -1466,7 +1560,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -1487,7 +1581,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
@@ -1508,7 +1602,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
         <v>140</v>
       </c>
@@ -1529,7 +1623,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
@@ -1550,7 +1644,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
@@ -1571,7 +1665,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
@@ -1592,7 +1686,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
@@ -1613,7 +1707,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
@@ -1634,7 +1728,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
         <v>140</v>
       </c>
@@ -1652,7 +1746,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
         <v>140</v>
       </c>
@@ -1670,7 +1764,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
         <v>140</v>
       </c>
@@ -1688,7 +1782,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
         <v>140</v>
       </c>
@@ -1706,7 +1800,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
         <v>140</v>
       </c>
@@ -1724,7 +1818,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="5" t="s">
         <v>49</v>
       </c>
@@ -1742,7 +1836,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
@@ -1760,7 +1854,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="5" t="s">
         <v>49</v>
       </c>
@@ -1778,7 +1872,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -1796,7 +1890,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="5" t="s">
         <v>49</v>
       </c>
@@ -1814,7 +1908,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="3" t="s">
         <v>49</v>
       </c>
@@ -1832,7 +1926,7 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="5" t="s">
         <v>49</v>
       </c>
@@ -1850,7 +1944,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
@@ -1868,7 +1962,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="5" t="s">
         <v>58</v>
       </c>
@@ -1886,7 +1980,7 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="3" t="s">
         <v>58</v>
       </c>
@@ -1904,7 +1998,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
         <v>58</v>
       </c>
@@ -1922,7 +2016,7 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="3" t="s">
         <v>58</v>
       </c>
@@ -1940,7 +2034,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="5" t="s">
         <v>140</v>
       </c>
@@ -1958,7 +2052,7 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="3" t="s">
         <v>63</v>
       </c>
@@ -1976,7 +2070,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="5" t="s">
         <v>63</v>
       </c>
@@ -1994,7 +2088,7 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="3" t="s">
         <v>63</v>
       </c>
@@ -2012,7 +2106,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="5" t="s">
         <v>63</v>
       </c>
@@ -2030,7 +2124,7 @@
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -2048,7 +2142,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
         <v>63</v>
       </c>
@@ -2066,7 +2160,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
@@ -2084,7 +2178,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -2102,7 +2196,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="3" t="s">
         <v>72</v>
       </c>
@@ -2120,7 +2214,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="5" t="s">
         <v>72</v>
       </c>
@@ -2139,7 +2233,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="3" t="s">
         <v>140</v>
       </c>
@@ -2158,7 +2252,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="5" t="s">
         <v>140</v>
       </c>
@@ -2177,7 +2271,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="3" t="s">
         <v>77</v>
       </c>
@@ -2196,7 +2290,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="5" t="s">
         <v>77</v>
       </c>
@@ -2215,7 +2309,7 @@
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="3" t="s">
         <v>77</v>
       </c>
@@ -2234,7 +2328,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="5" t="s">
         <v>77</v>
       </c>
@@ -2253,7 +2347,7 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="3" t="s">
         <v>77</v>
       </c>
@@ -2272,7 +2366,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="5" t="s">
         <v>140</v>
       </c>
@@ -2291,7 +2385,7 @@
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="3" t="s">
         <v>140</v>
       </c>
@@ -2310,7 +2404,7 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="5" t="s">
         <v>140</v>
       </c>
@@ -2329,7 +2423,7 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="3" t="s">
         <v>140</v>
       </c>
@@ -2348,7 +2442,7 @@
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="3" t="s">
         <v>140</v>
       </c>
@@ -2367,7 +2461,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="5" t="s">
         <v>140</v>
       </c>
@@ -2386,7 +2480,7 @@
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="5" t="s">
         <v>90</v>
       </c>
@@ -2405,7 +2499,7 @@
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="3" t="s">
         <v>90</v>
       </c>
@@ -2424,7 +2518,7 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="5" t="s">
         <v>90</v>
       </c>
@@ -2443,7 +2537,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="3" t="s">
         <v>90</v>
       </c>
@@ -2462,7 +2556,7 @@
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" s="5" t="s">
         <v>90</v>
       </c>
@@ -2481,7 +2575,7 @@
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" s="3" t="s">
         <v>90</v>
       </c>
@@ -2500,7 +2594,7 @@
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" s="5" t="s">
         <v>140</v>
       </c>
@@ -2519,7 +2613,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="3" t="s">
         <v>140</v>
       </c>
@@ -2538,7 +2632,7 @@
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="5" t="s">
         <v>140</v>
       </c>
@@ -2557,7 +2651,7 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" s="3" t="s">
         <v>140</v>
       </c>
@@ -2576,7 +2670,7 @@
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" s="3" t="s">
         <v>100</v>
       </c>
@@ -2595,7 +2689,7 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" s="5" t="s">
         <v>100</v>
       </c>
@@ -2614,7 +2708,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" s="3" t="s">
         <v>100</v>
       </c>
@@ -2633,7 +2727,7 @@
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" s="5" t="s">
         <v>100</v>
       </c>
@@ -2652,7 +2746,7 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" s="3" t="s">
         <v>100</v>
       </c>
@@ -2671,7 +2765,7 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" s="5" t="s">
         <v>100</v>
       </c>
@@ -2690,7 +2784,7 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93" s="3" t="s">
         <v>100</v>
       </c>
@@ -2709,7 +2803,7 @@
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" s="5" t="s">
         <v>100</v>
       </c>
@@ -2728,7 +2822,7 @@
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" s="3" t="s">
         <v>100</v>
       </c>
@@ -2747,7 +2841,7 @@
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" s="5" t="s">
         <v>100</v>
       </c>
@@ -2766,7 +2860,7 @@
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" s="3" t="s">
         <v>100</v>
       </c>
@@ -2785,7 +2879,7 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98" s="5" t="s">
         <v>100</v>
       </c>
@@ -2803,7 +2897,7 @@
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99" s="3" t="s">
         <v>140</v>
       </c>
@@ -2821,7 +2915,7 @@
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100" s="5" t="s">
         <v>140</v>
       </c>
@@ -2839,7 +2933,7 @@
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" s="3" t="s">
         <v>140</v>
       </c>
@@ -2857,7 +2951,7 @@
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" s="5" t="s">
         <v>118</v>
       </c>
@@ -2875,7 +2969,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" s="3" t="s">
         <v>118</v>
       </c>
@@ -2893,7 +2987,7 @@
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104" s="5" t="s">
         <v>118</v>
       </c>
@@ -2911,7 +3005,7 @@
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" s="3" t="s">
         <v>118</v>
       </c>
@@ -2929,7 +3023,7 @@
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106" s="5" t="s">
         <v>118</v>
       </c>
@@ -2947,7 +3041,7 @@
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107" s="3" t="s">
         <v>118</v>
       </c>
@@ -2965,7 +3059,7 @@
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108" s="5" t="s">
         <v>118</v>
       </c>
@@ -2986,4 +3080,167 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42366885-B116-D34C-BECC-C523639BF8EA}">
+  <dimension ref="A1:A29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="19">
+      <c r="A1" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="19">
+      <c r="A2" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="19">
+      <c r="A3" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="19">
+      <c r="A4" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="19">
+      <c r="A5" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="19">
+      <c r="A6" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="19">
+      <c r="A7" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="19">
+      <c r="A8" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="19">
+      <c r="A9" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="19">
+      <c r="A10" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="19">
+      <c r="A11" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="19">
+      <c r="A12" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="19">
+      <c r="A13" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="19">
+      <c r="A14" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="19">
+      <c r="A15" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="19">
+      <c r="A16" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="19">
+      <c r="A17" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="19">
+      <c r="A18" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="19">
+      <c r="A19" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="19">
+      <c r="A20" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="19">
+      <c r="A21" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="19">
+      <c r="A22" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="19">
+      <c r="A23" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="19">
+      <c r="A24" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="19">
+      <c r="A25" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="19">
+      <c r="A26" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="19">
+      <c r="A27" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="19">
+      <c r="A28" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="19">
+      <c r="A29" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>